--- a/biology/Zoologie/Astatopteryx/Astatopteryx.xlsx
+++ b/biology/Zoologie/Astatopteryx/Astatopteryx.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Astatopteryx est un genre de coléoptères de la famille des Ptiliidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre a été créé par Édouard Perris en 1863[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre a été créé par Édouard Perris en 1863.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (26 février 2021)[1] :
-Astatopteryx laticollis, Perris, 1863[2].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (26 février 2021) :
+Astatopteryx laticollis, Perris, 1863.</t>
         </is>
       </c>
     </row>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom du genre Astatopteryx vient du grec ancien ἄστατος, ástatos, « incertain » et πτερόν, ptéros, « aile » et ce en référence au fait que selon les individus examinés certains étaient dépourvus d'ailes, d'autres ne possédaient que des moignons et d'autres encore étaient ailés[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom du genre Astatopteryx vient du grec ancien ἄστατος, ástatos, « incertain » et πτερόν, ptéros, « aile » et ce en référence au fait que selon les individus examinés certains étaient dépourvus d'ailes, d'autres ne possédaient que des moignons et d'autres encore étaient ailés.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>[Perris 1863] Histoire des insectes du pin maritime, Paris, Buquet, 1863, 15 p. (OCLC 9614559, présentation en ligne, lire en ligne)</t>
         </is>
